--- a/docs/sample.xlsx
+++ b/docs/sample.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B25044F-3212-4EFE-8257-F0EC87F0A029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74382030-297A-4743-8B3A-F5AC5F12A453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="在庫リスト_1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="93">
   <si>
     <t>パトロス ラボ</t>
   </si>
@@ -319,6 +319,10 @@
   </si>
   <si>
     <t>在庫リスト_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN0015</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -997,6 +1001,52 @@
   </cellStyles>
   <dxfs count="62">
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1356,31 +1406,11 @@
         <charset val="128"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1429,32 +1459,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -2194,7 +2198,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B5F41AE6-A43C-447C-86F3-E9751D748932}" name="在庫_リスト_表3" displayName="在庫_リスト_表3" ref="B5:L30" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B5F41AE6-A43C-447C-86F3-E9751D748932}" name="在庫_リスト_表3" displayName="在庫_リスト_表3" ref="B5:L30" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="B5:L30" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2209,21 +2213,21 @@
     <filterColumn colId="10" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{E36A4FF2-3F9E-4222-915F-A66A8C72FA22}" name="再発注用" totalsRowLabel="集計" dataDxfId="20" totalsRowDxfId="21">
+    <tableColumn id="1" xr3:uid="{E36A4FF2-3F9E-4222-915F-A66A8C72FA22}" name="再発注用" totalsRowLabel="集計" dataDxfId="25" totalsRowDxfId="24">
       <calculatedColumnFormula>IFERROR((在庫_リスト_表3[[#This Row],[数量在庫あり]]&lt;=在庫_リスト_表3[[#This Row],[再発注点]])*(在庫_リスト_表3[[#This Row],[取り扱い中止?]]="")*値の強調表示,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{EE70500E-EF1A-4594-9AB5-293D94358319}" name="在庫 ID" dataDxfId="18" totalsRowDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{C3B45931-BB7D-4E80-B2D2-22DCEED8980F}" name="名前" dataDxfId="16" totalsRowDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{6B6679E3-C5E5-495A-B3BC-F62E9D565601}" name="説明" dataDxfId="14" totalsRowDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{A716AF02-9421-42A4-AD33-C1CD805E68D5}" name="単価" dataDxfId="12" totalsRowDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{A76EDE24-EE17-46DC-95BA-E23FBCE165ED}" name="数量在庫あり" dataDxfId="10" totalsRowDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{9FC4F92A-034B-4981-9FE2-1B7F3A3F5146}" name="在庫の評価額" dataDxfId="8" totalsRowDxfId="9">
+    <tableColumn id="2" xr3:uid="{EE70500E-EF1A-4594-9AB5-293D94358319}" name="在庫 ID" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{C3B45931-BB7D-4E80-B2D2-22DCEED8980F}" name="名前" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{6B6679E3-C5E5-495A-B3BC-F62E9D565601}" name="説明" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{A716AF02-9421-42A4-AD33-C1CD805E68D5}" name="単価" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{A76EDE24-EE17-46DC-95BA-E23FBCE165ED}" name="数量在庫あり" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{9FC4F92A-034B-4981-9FE2-1B7F3A3F5146}" name="在庫の評価額" dataDxfId="13" totalsRowDxfId="12">
       <calculatedColumnFormula>在庫_リスト_表3[[#This Row],[単価]]*在庫_リスト_表3[[#This Row],[数量在庫あり]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{FCA93305-6B84-4702-9514-F0B8D17C1D93}" name="再発注点" dataDxfId="6" totalsRowDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{2D455F6A-D102-4054-A631-6E706599E16D}" name="再発注品目の調達期間 (日単位)" dataDxfId="4" totalsRowDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{01450DCE-FE66-4774-A01B-E6131E65B97C}" name="数量再発注中" dataDxfId="2" totalsRowDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{1EFA26F2-023C-4BBF-91D3-26D8113819A6}" name="取り扱い中止?" totalsRowFunction="count" dataDxfId="0" totalsRowDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{FCA93305-6B84-4702-9514-F0B8D17C1D93}" name="再発注点" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{2D455F6A-D102-4054-A631-6E706599E16D}" name="再発注品目の調達期間 (日単位)" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{01450DCE-FE66-4774-A01B-E6131E65B97C}" name="数量再発注中" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{1EFA26F2-023C-4BBF-91D3-26D8113819A6}" name="取り扱い中止?" totalsRowFunction="count" dataDxfId="5" totalsRowDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="表スタイル ダーク 9 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2435,7 +2439,7 @@
   <dimension ref="A1:M749"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2569,7 +2573,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>29</v>
@@ -14281,10 +14285,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B6:L30">
-    <cfRule type="expression" dxfId="27" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$L6="はい"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$B6=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26198,10 +26202,10 @@
   </sheetData>
   <phoneticPr fontId="26"/>
   <conditionalFormatting sqref="B6:L30">
-    <cfRule type="expression" dxfId="25" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$L6="はい"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$B6=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26262,6 +26266,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60f5a4f2d2b0abadcf532d48ebf9cb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dd78129e6a1811f84807ad11c651531" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -26573,36 +26606,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99D1F540-32A9-4ED6-9336-A9BD181B3061}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2651663D-B88E-4AD7-9DE9-C58C98743015}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D0138EE-2E2E-4C4B-9EFC-B08AA63A1736}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26623,26 +26647,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2651663D-B88E-4AD7-9DE9-C58C98743015}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99D1F540-32A9-4ED6-9336-A9BD181B3061}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>